--- a/biology/Médecine/Hachimi_Nait-Djoudi/Hachimi_Nait-Djoudi.xlsx
+++ b/biology/Médecine/Hachimi_Nait-Djoudi/Hachimi_Nait-Djoudi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hachimi Nait-Djoudi (1946-2001) est un homme politique algérien, chirurgien de formation, militant de l'amazighité, membre fondateur de la première Ligue algérienne de défense des droits de l'homme, dirigeant du Front des forces socialistes (FFS) et ministre sous la présidence de Mohamed Boudiaf.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hachimi Nait-Djoudi est né le 7 octobre 1946 à Djemâa-Saharidj, en Kabylie (Algérie). Chirurgien de formation, il exerce en Algérie et en France, à l'Hôpital Ambroise-Paré (Boulogne-Billancourt).
 Il adhère au Front des forces socialistes (FFS) en 1974, quand ce parti est encore clandestin. En 1980, alors qu'il se trouve en France, il soutient activement le mouvement pour la reconnaissance de l'identité amazighe. Trois ans plus tard il rentre en Algérie où il participe à la création de la première Ligue algérienne de défense des droits de l'homme. Il en devient secrétaire général adjoint. En 1985, il est arrêté pour ses activités oppositionnelles. Il est traduit devant la Cour de Sûreté de l'État de Médéa qui le condamne à deux ans de prison.
